--- a/lab3/timing data.xlsx
+++ b/lab3/timing data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99367010-38E6-F941-9F55-A8FDB30562AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B6762-78F3-5143-96DB-BD3F84A062A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{2DC99A1B-3062-8B4F-B963-CDB1AC333640}"/>
   </bookViews>
@@ -16,12 +16,13 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_1pivot" localSheetId="0">Sheet1!$B$3:$C$32</definedName>
-    <definedName name="_2pivot" localSheetId="0">Sheet1!$D$3:$E$32</definedName>
-    <definedName name="_3pivot" localSheetId="0">Sheet1!$F$3:$G$32</definedName>
-    <definedName name="_4pivot" localSheetId="0">Sheet1!$H$3:$I$32</definedName>
+    <definedName name="_1pivot" localSheetId="0">Sheet1!$D$3:$E$32</definedName>
+    <definedName name="_2pivot" localSheetId="0">Sheet1!$F$3:$G$32</definedName>
+    <definedName name="_3pivot" localSheetId="0">Sheet1!$H$3:$I$32</definedName>
+    <definedName name="_4pivot" localSheetId="0">Sheet1!$J$3:$K$32</definedName>
+    <definedName name="nocopy" localSheetId="0">Sheet1!$B$3:$C$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{2A776796-FA3F-0D47-BB53-0C06C37E3C0A}" name="1pivot" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/1pivot.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/1pivot.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -50,7 +51,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{8C13B903-F222-7243-82C1-71361CDCBF36}" name="2pivot" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/2pivot.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/2pivot.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -58,7 +59,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{55D8FE83-8974-5143-B4A7-5EAC374EB1DE}" name="3pivot" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/3pivot.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/3pivot.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -66,7 +67,15 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{50D55139-D550-E046-840B-5EC4E2A55F46}" name="4pivot" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/4pivot.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/4pivot.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{823C4D9A-25E1-AC40-B4AA-80C2AFD4EB41}" name="nocopy" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/nocopy.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -77,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>1-pviot</t>
   </si>
@@ -92,9 +101,6 @@
   </si>
   <si>
     <t>After multiply 10^5</t>
-  </si>
-  <si>
-    <t>1-pviot avg</t>
   </si>
   <si>
     <t>2 pivot avg</t>
@@ -121,7 +127,19 @@
     <t>3 to 4</t>
   </si>
   <si>
-    <t>There is a an aproximate 30 percent increase in performace speed between a single copy quicksoft and a dual pivot quicksoft. Further tests showed a 1 to 2% performance increase with each consecutive increase in the number of pivots</t>
+    <t>no copy</t>
+  </si>
+  <si>
+    <t>1-pivot avg</t>
+  </si>
+  <si>
+    <t>no copy avg</t>
+  </si>
+  <si>
+    <t>nocopy to 1</t>
+  </si>
+  <si>
+    <t>There is a an average 20 percent increase in performace speed between a single copy quicksoft and a dual pivot quicksoft. Further tests showed a 1 to 5% performance increase with each consecutive increase in the number of pivots</t>
   </si>
 </sst>
 </file>
@@ -129,8 +147,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -167,19 +185,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -212,6 +229,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Preformance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -219,8 +291,107 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no copy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.78198000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.97563999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.91069999999939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3150.0195799999942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32514.253839999958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444783.55177999946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D103-CC4D-8239-3557C9FDD379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>1 pivot</c:v>
           </c:tx>
@@ -250,7 +421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$B$48</c:f>
+              <c:f>Sheet1!$D$43:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -277,7 +448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$43:$C$48</c:f>
+              <c:f>Sheet1!$E$43:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -311,7 +482,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>2 pivot</c:v>
           </c:tx>
@@ -341,7 +512,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$43:$D$48</c:f>
+              <c:f>Sheet1!$F$43:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -368,7 +539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$43:$E$48</c:f>
+              <c:f>Sheet1!$G$43:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -402,10 +573,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$34</c:f>
+              <c:f>Sheet1!$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -440,7 +611,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$43:$F$48</c:f>
+              <c:f>Sheet1!$H$43:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -467,7 +638,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$43:$G$48</c:f>
+              <c:f>Sheet1!$I$43:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -501,10 +672,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$34</c:f>
+              <c:f>Sheet1!$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -539,7 +710,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$43:$H$48</c:f>
+              <c:f>Sheet1!$J$43:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -566,7 +737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$43:$I$48</c:f>
+              <c:f>Sheet1!$K$43:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -742,6 +913,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1346,16 +1548,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214761</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>690702</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>111404</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1384,18 +1586,22 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="nocopy" connectionId="5" xr16:uid="{3E255610-454C-3845-A508-0FFD45547B6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="4pivot" connectionId="4" xr16:uid="{51BEFBC1-6D0C-C540-A13B-F987C1CB9F1A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="3pivot" connectionId="3" xr16:uid="{29EEF6AF-DCA4-3E46-A7A2-408E4FA24EF6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2pivot" connectionId="2" xr16:uid="{BA9AD5D7-E956-6E4E-826A-A9029CA2C89A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1pivot" connectionId="1" xr16:uid="{EEA8E525-FD32-CF42-ADE7-5E0C29562363}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1696,1337 +1902,1630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BF6B81-88B5-9C4F-8727-A1C565B4078D}">
-  <dimension ref="B2:I60"/>
+  <dimension ref="B2:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="N8" zoomScale="75" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>2.0565999999999599E-5</v>
+      <c r="C3" s="1">
+        <v>1.9250000000001901E-5</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <v>2.1378999999654902E-5</v>
+      <c r="E3" s="1">
+        <v>2.0565999999999599E-5</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <v>1.8258999993747598E-5</v>
+      <c r="G3" s="1">
+        <v>2.1378999999654902E-5</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
+        <v>1.8258999993747598E-5</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
         <v>2.3675999997862999E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.8597000000002099E-5</v>
+      <c r="C4" s="1">
+        <v>1.76880000000018E-5</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <v>2.09309999981144E-5</v>
+      <c r="E4" s="1">
+        <v>1.8597000000002099E-5</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
-        <v>1.8889999999771501E-5</v>
+      <c r="G4" s="1">
+        <v>2.09309999981144E-5</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
+        <v>1.8889999999771501E-5</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
         <v>1.8316999998546601E-5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.5237000000001199E-5</v>
+      <c r="C5" s="1">
+        <v>1.5437000000000001E-5</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
-        <v>1.68479999977932E-5</v>
+      <c r="E5" s="1">
+        <v>1.5237000000001199E-5</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
-        <v>1.79860000031339E-5</v>
+      <c r="G5" s="1">
+        <v>1.68479999977932E-5</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
+        <v>1.79860000031339E-5</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
         <v>1.5910000001895201E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.6183000000002901E-5</v>
+      <c r="C6" s="1">
+        <v>1.50109999999988E-5</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
-        <v>1.5298000000996099E-5</v>
+      <c r="E6" s="1">
+        <v>1.6183000000002901E-5</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
-        <v>1.83249999992085E-5</v>
+      <c r="G6" s="1">
+        <v>1.5298000000996099E-5</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
+        <v>1.83249999992085E-5</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
         <v>1.9144000006576701E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.5016999999999101E-5</v>
+      <c r="C7" s="1">
+        <v>2.1713000000002999E-5</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
-        <v>1.8010000001566999E-5</v>
+      <c r="E7" s="1">
+        <v>1.5016999999999101E-5</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
-        <v>1.95940000011773E-5</v>
+      <c r="G7" s="1">
+        <v>1.8010000001566999E-5</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
+        <v>1.95940000011773E-5</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
         <v>1.5981999993641599E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.52066999999998E-4</v>
+      <c r="C8" s="1">
+        <v>1.6307299999999901E-4</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
-      <c r="E8" s="2">
-        <v>1.6643000000016099E-4</v>
+      <c r="E8" s="1">
+        <v>1.52066999999998E-4</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="2">
-        <v>1.62488999997378E-4</v>
+      <c r="G8" s="1">
+        <v>1.6643000000016099E-4</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
+        <v>1.62488999997378E-4</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="1">
         <v>1.5822000000298401E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.6914499999999899E-4</v>
+      <c r="C9" s="1">
+        <v>1.6824699999999599E-4</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
-      <c r="E9" s="2">
-        <v>1.7225399999887199E-4</v>
+      <c r="E9" s="1">
+        <v>1.6914499999999899E-4</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="2">
-        <v>1.5934299999997801E-4</v>
+      <c r="G9" s="1">
+        <v>1.7225399999887199E-4</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
+        <v>1.5934299999997801E-4</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" s="1">
         <v>1.3352000000566001E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.3595799999999801E-4</v>
+      <c r="C10" s="1">
+        <v>1.58659000000005E-4</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10" s="2">
-        <v>1.51633999998068E-4</v>
+      <c r="E10" s="1">
+        <v>1.3595799999999801E-4</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
-      <c r="G10" s="2">
-        <v>1.55726000002687E-4</v>
+      <c r="G10" s="1">
+        <v>1.51633999998068E-4</v>
       </c>
       <c r="H10">
         <v>100</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
+        <v>1.55726000002687E-4</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
         <v>1.2262100000270899E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.3744300000000001E-4</v>
+      <c r="C11" s="1">
+        <v>1.46444999999995E-4</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11" s="2">
-        <v>1.4591899999771799E-4</v>
+      <c r="E11" s="1">
+        <v>1.3744300000000001E-4</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
-      <c r="G11" s="2">
-        <v>1.42200999995623E-4</v>
+      <c r="G11" s="1">
+        <v>1.4591899999771799E-4</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
+        <v>1.42200999995623E-4</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
         <v>1.4253099999450499E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.47317999999996E-4</v>
+      <c r="C12" s="1">
+        <v>1.6235800000000101E-4</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
-      <c r="E12" s="2">
-        <v>1.4643700000149801E-4</v>
+      <c r="E12" s="1">
+        <v>1.47317999999996E-4</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
-      <c r="G12" s="2">
-        <v>1.41114000001607E-4</v>
+      <c r="G12" s="1">
+        <v>1.4643700000149801E-4</v>
       </c>
       <c r="H12">
         <v>100</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
+        <v>1.41114000001607E-4</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12" s="1">
         <v>1.20933000005152E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1000</v>
       </c>
-      <c r="C13" s="2">
-        <v>1.882075E-3</v>
+      <c r="C13" s="1">
+        <v>3.6887130000000001E-3</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
-      <c r="E13" s="2">
-        <v>1.8164280000014701E-3</v>
+      <c r="E13" s="1">
+        <v>1.882075E-3</v>
       </c>
       <c r="F13">
         <v>1000</v>
       </c>
-      <c r="G13" s="2">
-        <v>1.7972449999987801E-3</v>
+      <c r="G13" s="1">
+        <v>1.8164280000014701E-3</v>
       </c>
       <c r="H13">
         <v>1000</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
+        <v>1.7972449999987801E-3</v>
+      </c>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="1">
         <v>1.63016999999854E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1000</v>
       </c>
-      <c r="C14" s="2">
-        <v>2.6304829999999999E-3</v>
+      <c r="C14" s="1">
+        <v>2.3258749999999898E-3</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
-      <c r="E14" s="2">
-        <v>1.6778209999976899E-3</v>
+      <c r="E14" s="1">
+        <v>2.6304829999999999E-3</v>
       </c>
       <c r="F14">
         <v>1000</v>
       </c>
-      <c r="G14" s="2">
-        <v>1.7136490000026999E-3</v>
+      <c r="G14" s="1">
+        <v>1.6778209999976899E-3</v>
       </c>
       <c r="H14">
         <v>1000</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
+        <v>1.7136490000026999E-3</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="1">
         <v>1.5299530000021299E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1000</v>
       </c>
-      <c r="C15" s="2">
-        <v>2.1245099999999901E-3</v>
+      <c r="C15" s="1">
+        <v>2.7028309999999902E-3</v>
       </c>
       <c r="D15">
         <v>1000</v>
       </c>
-      <c r="E15" s="2">
-        <v>1.6625579999995899E-3</v>
+      <c r="E15" s="1">
+        <v>2.1245099999999901E-3</v>
       </c>
       <c r="F15">
         <v>1000</v>
       </c>
-      <c r="G15" s="2">
-        <v>1.67453199999556E-3</v>
+      <c r="G15" s="1">
+        <v>1.6625579999995899E-3</v>
       </c>
       <c r="H15">
         <v>1000</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
+        <v>1.67453199999556E-3</v>
+      </c>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="1">
         <v>1.5986089999984101E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1000</v>
       </c>
-      <c r="C16" s="2">
-        <v>2.9178490000000001E-3</v>
+      <c r="C16" s="1">
+        <v>3.0699879999999901E-3</v>
       </c>
       <c r="D16">
         <v>1000</v>
       </c>
-      <c r="E16" s="2">
-        <v>1.7411010000003501E-3</v>
+      <c r="E16" s="1">
+        <v>2.9178490000000001E-3</v>
       </c>
       <c r="F16">
         <v>1000</v>
       </c>
-      <c r="G16" s="2">
-        <v>2.12219299999816E-3</v>
+      <c r="G16" s="1">
+        <v>1.7411010000003501E-3</v>
       </c>
       <c r="H16">
         <v>1000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
+        <v>2.12219299999816E-3</v>
+      </c>
+      <c r="J16">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="1">
         <v>1.7472929999939801E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1000</v>
       </c>
-      <c r="C17" s="2">
-        <v>2.1936629999999898E-3</v>
+      <c r="C17" s="1">
+        <v>2.458128E-3</v>
       </c>
       <c r="D17">
         <v>1000</v>
       </c>
-      <c r="E17" s="2">
-        <v>2.68580699999887E-3</v>
+      <c r="E17" s="1">
+        <v>2.1936629999999898E-3</v>
       </c>
       <c r="F17">
         <v>1000</v>
       </c>
-      <c r="G17" s="2">
-        <v>1.8479960000021801E-3</v>
+      <c r="G17" s="1">
+        <v>2.68580699999887E-3</v>
       </c>
       <c r="H17">
         <v>1000</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
+        <v>1.8479960000021801E-3</v>
+      </c>
+      <c r="J17">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="1">
         <v>2.4658770000058798E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>10000</v>
       </c>
-      <c r="C18" s="2">
-        <v>2.69794659999999E-2</v>
+      <c r="C18" s="1">
+        <v>3.0643060999999999E-2</v>
       </c>
       <c r="D18">
         <v>10000</v>
       </c>
-      <c r="E18" s="2">
-        <v>2.1976986999998602E-2</v>
+      <c r="E18" s="1">
+        <v>2.69794659999999E-2</v>
       </c>
       <c r="F18">
         <v>10000</v>
       </c>
-      <c r="G18" s="2">
-        <v>1.9276474999997999E-2</v>
+      <c r="G18" s="1">
+        <v>2.1976986999998602E-2</v>
       </c>
       <c r="H18">
         <v>10000</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
+        <v>1.9276474999997999E-2</v>
+      </c>
+      <c r="J18">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="1">
         <v>1.8794282000001699E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>10000</v>
       </c>
-      <c r="C19" s="2">
-        <v>2.5384565000000001E-2</v>
+      <c r="C19" s="1">
+        <v>3.1457552E-2</v>
       </c>
       <c r="D19">
         <v>10000</v>
       </c>
-      <c r="E19" s="2">
-        <v>1.67236260000009E-2</v>
+      <c r="E19" s="1">
+        <v>2.5384565000000001E-2</v>
       </c>
       <c r="F19">
         <v>10000</v>
       </c>
-      <c r="G19" s="2">
-        <v>1.5785327000003201E-2</v>
+      <c r="G19" s="1">
+        <v>1.67236260000009E-2</v>
       </c>
       <c r="H19">
         <v>10000</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
+        <v>1.5785327000003201E-2</v>
+      </c>
+      <c r="J19">
+        <v>10000</v>
+      </c>
+      <c r="K19" s="1">
         <v>1.53784459999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>10000</v>
       </c>
-      <c r="C20" s="2">
-        <v>2.6969727999999998E-2</v>
+      <c r="C20" s="1">
+        <v>3.7380954999999903E-2</v>
       </c>
       <c r="D20">
         <v>10000</v>
       </c>
-      <c r="E20" s="2">
-        <v>1.6601471999997799E-2</v>
+      <c r="E20" s="1">
+        <v>2.6969727999999998E-2</v>
       </c>
       <c r="F20">
         <v>10000</v>
       </c>
-      <c r="G20" s="2">
-        <v>1.7216223999994801E-2</v>
+      <c r="G20" s="1">
+        <v>1.6601471999997799E-2</v>
       </c>
       <c r="H20">
         <v>10000</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
+        <v>1.7216223999994801E-2</v>
+      </c>
+      <c r="J20">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="1">
         <v>1.7249126000009999E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>10000</v>
       </c>
-      <c r="C21" s="2">
-        <v>2.2300225999999999E-2</v>
+      <c r="C21" s="1">
+        <v>3.06478969999999E-2</v>
       </c>
       <c r="D21">
         <v>10000</v>
       </c>
-      <c r="E21" s="2">
-        <v>1.8296248999998699E-2</v>
+      <c r="E21" s="1">
+        <v>2.2300225999999999E-2</v>
       </c>
       <c r="F21">
         <v>10000</v>
       </c>
-      <c r="G21" s="2">
-        <v>1.7673961999996299E-2</v>
+      <c r="G21" s="1">
+        <v>1.8296248999998699E-2</v>
       </c>
       <c r="H21">
         <v>10000</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
+        <v>1.7673961999996299E-2</v>
+      </c>
+      <c r="J21">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="1">
         <v>1.5926407999998501E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>10000</v>
       </c>
-      <c r="C22" s="2">
-        <v>2.29253309999999E-2</v>
+      <c r="C22" s="1">
+        <v>2.7371513999999899E-2</v>
       </c>
       <c r="D22">
         <v>10000</v>
       </c>
-      <c r="E22" s="2">
-        <v>1.6616599999998899E-2</v>
+      <c r="E22" s="1">
+        <v>2.29253309999999E-2</v>
       </c>
       <c r="F22">
         <v>10000</v>
       </c>
-      <c r="G22" s="2">
-        <v>1.6415846000001E-2</v>
+      <c r="G22" s="1">
+        <v>1.6616599999998899E-2</v>
       </c>
       <c r="H22">
         <v>10000</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
+        <v>1.6415846000001E-2</v>
+      </c>
+      <c r="J22">
+        <v>10000</v>
+      </c>
+      <c r="K22" s="1">
         <v>1.55325959999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>100000</v>
       </c>
-      <c r="C23" s="2">
-        <v>0.243259377999999</v>
+      <c r="C23" s="1">
+        <v>0.31585696199999902</v>
       </c>
       <c r="D23">
         <v>100000</v>
       </c>
-      <c r="E23" s="2">
-        <v>0.20737813299999799</v>
+      <c r="E23" s="1">
+        <v>0.243259377999999</v>
       </c>
       <c r="F23">
         <v>100000</v>
       </c>
-      <c r="G23" s="2">
-        <v>0.21390647300000101</v>
+      <c r="G23" s="1">
+        <v>0.20737813299999799</v>
       </c>
       <c r="H23">
         <v>100000</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
+        <v>0.21390647300000101</v>
+      </c>
+      <c r="J23">
+        <v>100000</v>
+      </c>
+      <c r="K23" s="1">
         <v>0.19631698399999201</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>100000</v>
       </c>
-      <c r="C24" s="2">
-        <v>0.234920184</v>
+      <c r="C24" s="1">
+        <v>0.35109491100000001</v>
       </c>
       <c r="D24">
         <v>100000</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.21099991099999801</v>
+      <c r="E24" s="1">
+        <v>0.234920184</v>
       </c>
       <c r="F24">
         <v>100000</v>
       </c>
-      <c r="G24" s="2">
-        <v>0.19775942900000101</v>
+      <c r="G24" s="1">
+        <v>0.21099991099999801</v>
       </c>
       <c r="H24">
         <v>100000</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
+        <v>0.19775942900000101</v>
+      </c>
+      <c r="J24">
+        <v>100000</v>
+      </c>
+      <c r="K24" s="1">
         <v>0.21646933799999599</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>100000</v>
       </c>
-      <c r="C25" s="2">
-        <v>0.25366540500000001</v>
+      <c r="C25" s="1">
+        <v>0.33986928100000002</v>
       </c>
       <c r="D25">
         <v>100000</v>
       </c>
-      <c r="E25" s="2">
-        <v>0.23086567699999699</v>
+      <c r="E25" s="1">
+        <v>0.25366540500000001</v>
       </c>
       <c r="F25">
         <v>100000</v>
       </c>
-      <c r="G25" s="2">
-        <v>0.20678848300000299</v>
+      <c r="G25" s="1">
+        <v>0.23086567699999699</v>
       </c>
       <c r="H25">
         <v>100000</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
+        <v>0.20678848300000299</v>
+      </c>
+      <c r="J25">
+        <v>100000</v>
+      </c>
+      <c r="K25" s="1">
         <v>0.20472369300000501</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>100000</v>
       </c>
-      <c r="C26" s="2">
-        <v>0.26543855399999899</v>
+      <c r="C26" s="1">
+        <v>0.31307708299999898</v>
       </c>
       <c r="D26">
         <v>100000</v>
       </c>
-      <c r="E26" s="2">
-        <v>0.209073063999998</v>
+      <c r="E26" s="1">
+        <v>0.26543855399999899</v>
       </c>
       <c r="F26">
         <v>100000</v>
       </c>
-      <c r="G26" s="2">
-        <v>0.20221892900000399</v>
+      <c r="G26" s="1">
+        <v>0.209073063999998</v>
       </c>
       <c r="H26">
         <v>100000</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
+        <v>0.20221892900000399</v>
+      </c>
+      <c r="J26">
+        <v>100000</v>
+      </c>
+      <c r="K26" s="1">
         <v>0.207334672000001</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>100000</v>
       </c>
-      <c r="C27" s="2">
-        <v>0.31097257499999997</v>
+      <c r="C27" s="1">
+        <v>0.30581445499999999</v>
       </c>
       <c r="D27">
         <v>100000</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.211679270000001</v>
+      <c r="E27" s="1">
+        <v>0.31097257499999997</v>
       </c>
       <c r="F27">
         <v>100000</v>
       </c>
-      <c r="G27" s="2">
-        <v>0.196358598999999</v>
+      <c r="G27" s="1">
+        <v>0.211679270000001</v>
       </c>
       <c r="H27">
         <v>100000</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
+        <v>0.196358598999999</v>
+      </c>
+      <c r="J27">
+        <v>100000</v>
+      </c>
+      <c r="K27" s="1">
         <v>0.187937671</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1000000</v>
       </c>
-      <c r="C28" s="2">
-        <v>3.9675477520000002</v>
+      <c r="C28" s="1">
+        <v>4.1004008609999998</v>
       </c>
       <c r="D28">
         <v>1000000</v>
       </c>
-      <c r="E28" s="2">
-        <v>3.2190399300000001</v>
+      <c r="E28" s="1">
+        <v>3.9675477520000002</v>
       </c>
       <c r="F28">
         <v>1000000</v>
       </c>
-      <c r="G28" s="2">
-        <v>3.20801983199999</v>
+      <c r="G28" s="1">
+        <v>3.2190399300000001</v>
       </c>
       <c r="H28">
         <v>1000000</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
+        <v>3.20801983199999</v>
+      </c>
+      <c r="J28">
+        <v>1000000</v>
+      </c>
+      <c r="K28" s="1">
         <v>3.1147698620000002</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1000000</v>
       </c>
-      <c r="C29" s="2">
-        <v>4.5218419359999897</v>
+      <c r="C29" s="1">
+        <v>4.6879437579999896</v>
       </c>
       <c r="D29">
         <v>1000000</v>
       </c>
-      <c r="E29" s="2">
-        <v>3.2041932690000001</v>
+      <c r="E29" s="1">
+        <v>4.5218419359999897</v>
       </c>
       <c r="F29">
         <v>1000000</v>
       </c>
-      <c r="G29" s="2">
-        <v>3.12089163799999</v>
+      <c r="G29" s="1">
+        <v>3.2041932690000001</v>
       </c>
       <c r="H29">
         <v>1000000</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
+        <v>3.12089163799999</v>
+      </c>
+      <c r="J29">
+        <v>1000000</v>
+      </c>
+      <c r="K29" s="1">
         <v>2.9951816360000101</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1000000</v>
       </c>
-      <c r="C30" s="2">
-        <v>4.1721875769999999</v>
+      <c r="C30" s="1">
+        <v>5.0619249379999998</v>
       </c>
       <c r="D30">
         <v>1000000</v>
       </c>
-      <c r="E30" s="2">
-        <v>3.2062724</v>
+      <c r="E30" s="1">
+        <v>4.1721875769999999</v>
       </c>
       <c r="F30">
         <v>1000000</v>
       </c>
-      <c r="G30" s="2">
-        <v>3.2104715439999998</v>
+      <c r="G30" s="1">
+        <v>3.2062724</v>
       </c>
       <c r="H30">
         <v>1000000</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
+        <v>3.2104715439999998</v>
+      </c>
+      <c r="J30">
+        <v>1000000</v>
+      </c>
+      <c r="K30" s="1">
         <v>3.1555629779999999</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1000000</v>
       </c>
-      <c r="C31" s="2">
-        <v>4.3563733390000001</v>
+      <c r="C31" s="1">
+        <v>4.2865755829999896</v>
       </c>
       <c r="D31">
         <v>1000000</v>
       </c>
-      <c r="E31" s="2">
-        <v>3.312631074</v>
+      <c r="E31" s="1">
+        <v>4.3563733390000001</v>
       </c>
       <c r="F31">
         <v>1000000</v>
       </c>
-      <c r="G31" s="2">
-        <v>3.06770317599999</v>
+      <c r="G31" s="1">
+        <v>3.312631074</v>
       </c>
       <c r="H31">
         <v>1000000</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
+        <v>3.06770317599999</v>
+      </c>
+      <c r="J31">
+        <v>1000000</v>
+      </c>
+      <c r="K31" s="1">
         <v>3.1459090939999901</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1000000</v>
       </c>
-      <c r="C32" s="2">
-        <v>3.8376180369999999</v>
+      <c r="C32" s="1">
+        <v>4.1023324489999897</v>
       </c>
       <c r="D32">
         <v>1000000</v>
       </c>
-      <c r="E32" s="2">
-        <v>3.2382166659999898</v>
+      <c r="E32" s="1">
+        <v>3.8376180369999999</v>
       </c>
       <c r="F32">
         <v>1000000</v>
       </c>
-      <c r="G32" s="2">
-        <v>3.2798143249999998</v>
+      <c r="G32" s="1">
+        <v>3.2382166659999898</v>
       </c>
       <c r="H32">
         <v>1000000</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
+        <v>3.2798143249999998</v>
+      </c>
+      <c r="J32">
+        <v>1000000</v>
+      </c>
+      <c r="K32" s="1">
         <v>3.2178566380000002</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <f>AVERAGE(B3:B7)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f>AVERAGE(C3:C7)</f>
-        <v>1.7120000000000981E-5</v>
+        <v>1.7819800000001099E-5</v>
       </c>
       <c r="D35">
         <f>AVERAGE(D3:D7)</f>
         <v>10</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f>AVERAGE(E3:E7)</f>
-        <v>1.8493199999625118E-5</v>
+        <v>1.7120000000000981E-5</v>
       </c>
       <c r="F35">
         <f>AVERAGE(F3:F7)</f>
         <v>10</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <f>AVERAGE(G3:G7)</f>
-        <v>1.8610799999407759E-5</v>
+        <v>1.8493199999625118E-5</v>
       </c>
       <c r="H35">
         <f>AVERAGE(H3:H7)</f>
         <v>10</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <f>AVERAGE(I3:I7)</f>
+        <v>1.8610799999407759E-5</v>
+      </c>
+      <c r="J35">
+        <f>AVERAGE(J3:J7)</f>
+        <v>10</v>
+      </c>
+      <c r="K35" s="1">
+        <f>AVERAGE(K3:K7)</f>
         <v>1.860579999970462E-5</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <f>AVERAGE(B8:B12)</f>
         <v>100</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>1.483861999999982E-4</v>
+        <v>1.5975639999999921E-4</v>
       </c>
       <c r="D36">
         <f>AVERAGE(D8:D12)</f>
         <v>100</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f>AVERAGE(E8:E12)</f>
-        <v>1.5653479999926342E-4</v>
+        <v>1.483861999999982E-4</v>
       </c>
       <c r="F36">
         <f>AVERAGE(F8:F12)</f>
         <v>100</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <f>AVERAGE(G8:G12)</f>
-        <v>1.5217459999945462E-4</v>
+        <v>1.5653479999926342E-4</v>
       </c>
       <c r="H36">
         <f>AVERAGE(H8:H12)</f>
         <v>100</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <f>AVERAGE(I8:I12)</f>
+        <v>1.5217459999945462E-4</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE(J8:J12)</f>
+        <v>100</v>
+      </c>
+      <c r="K36" s="1">
+        <f>AVERAGE(K8:K12)</f>
         <v>1.3556500000220199E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <f>AVERAGE(B13:B17)</f>
         <v>1000</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f>AVERAGE(C13:C17)</f>
-        <v>2.3497159999999956E-3</v>
+        <v>2.849106999999994E-3</v>
       </c>
       <c r="D37">
         <f>AVERAGE(D13:D17)</f>
         <v>1000</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f>AVERAGE(E13:E17)</f>
-        <v>1.9167429999995939E-3</v>
+        <v>2.3497159999999956E-3</v>
       </c>
       <c r="F37">
         <f>AVERAGE(F13:F17)</f>
         <v>1000</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <f>AVERAGE(G13:G17)</f>
-        <v>1.8311229999994762E-3</v>
+        <v>1.9167429999995939E-3</v>
       </c>
       <c r="H37">
         <f>AVERAGE(H13:H17)</f>
         <v>1000</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <f>AVERAGE(I13:I17)</f>
+        <v>1.8311229999994762E-3</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE(J13:J17)</f>
+        <v>1000</v>
+      </c>
+      <c r="K37" s="1">
+        <f>AVERAGE(K13:K17)</f>
         <v>1.794380399999788E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <f>AVERAGE(B18:B22)</f>
         <v>10000</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f>AVERAGE(C18:C22)</f>
-        <v>2.491186319999996E-2</v>
+        <v>3.1500195799999943E-2</v>
       </c>
       <c r="D38">
         <f>AVERAGE(D18:D22)</f>
         <v>10000</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <f>AVERAGE(E18:E22)</f>
-        <v>1.8042986799998981E-2</v>
+        <v>2.491186319999996E-2</v>
       </c>
       <c r="F38">
         <f>AVERAGE(F18:F22)</f>
         <v>10000</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f>AVERAGE(G18:G22)</f>
-        <v>1.7273566799998658E-2</v>
+        <v>1.8042986799998981E-2</v>
       </c>
       <c r="H38">
         <f>AVERAGE(H18:H22)</f>
         <v>10000</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <f>AVERAGE(I18:I22)</f>
+        <v>1.7273566799998658E-2</v>
+      </c>
+      <c r="J38">
+        <f>AVERAGE(J18:J22)</f>
+        <v>10000</v>
+      </c>
+      <c r="K38" s="1">
+        <f>AVERAGE(K18:K22)</f>
         <v>1.6576171600001941E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <f>AVERAGE(B23:B27)</f>
         <v>100000</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <f>AVERAGE(C23:C27)</f>
-        <v>0.26165121919999956</v>
+        <v>0.32514253839999957</v>
       </c>
       <c r="D39">
         <f>AVERAGE(D23:D27)</f>
         <v>100000</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <f>AVERAGE(E23:E27)</f>
-        <v>0.21399921099999841</v>
+        <v>0.26165121919999956</v>
       </c>
       <c r="F39">
         <f>AVERAGE(F23:F27)</f>
         <v>100000</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <f>AVERAGE(G23:G27)</f>
-        <v>0.2034063826000016</v>
+        <v>0.21399921099999841</v>
       </c>
       <c r="H39">
         <f>AVERAGE(H23:H27)</f>
         <v>100000</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <f>AVERAGE(I23:I27)</f>
+        <v>0.2034063826000016</v>
+      </c>
+      <c r="J39">
+        <f>AVERAGE(J23:J27)</f>
+        <v>100000</v>
+      </c>
+      <c r="K39" s="1">
+        <f>AVERAGE(K23:K27)</f>
         <v>0.20255647159999879</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <f>AVERAGE(B28:B32)</f>
         <v>1000000</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f>AVERAGE(C28:C32)</f>
-        <v>4.1711137281999981</v>
+        <v>4.4478355177999944</v>
       </c>
       <c r="D40">
         <f>AVERAGE(D28:D32)</f>
         <v>1000000</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <f>AVERAGE(E28:E32)</f>
-        <v>3.2360706677999977</v>
+        <v>4.1711137281999981</v>
       </c>
       <c r="F40">
         <f>AVERAGE(F28:F32)</f>
         <v>1000000</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <f>AVERAGE(G28:G32)</f>
-        <v>3.1773801029999942</v>
+        <v>3.2360706677999977</v>
       </c>
       <c r="H40">
         <f>AVERAGE(H28:H32)</f>
         <v>1000000</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <f>AVERAGE(I28:I32)</f>
+        <v>3.1773801029999942</v>
+      </c>
+      <c r="J40">
+        <f>AVERAGE(J28:J32)</f>
+        <v>1000000</v>
+      </c>
+      <c r="K40" s="1">
+        <f>AVERAGE(K28:K32)</f>
         <v>3.1258560416000001</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43">
         <f>C35*10^5</f>
-        <v>1.7120000000000981</v>
+        <v>1.78198000000011</v>
       </c>
       <c r="D43">
         <v>10</v>
       </c>
       <c r="E43">
         <f>E35*10^5</f>
-        <v>1.8493199999625118</v>
+        <v>1.7120000000000981</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
       <c r="G43">
         <f>G35*10^5</f>
-        <v>1.8610799999407759</v>
+        <v>1.8493199999625118</v>
       </c>
       <c r="H43">
         <v>10</v>
       </c>
       <c r="I43">
         <f>I35*10^5</f>
+        <v>1.8610799999407759</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <f>K35*10^5</f>
         <v>1.860579999970462</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>100</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:E48" si="0">C36*10^5</f>
-        <v>14.838619999999819</v>
+        <f>C36*10^5</f>
+        <v>15.97563999999992</v>
       </c>
       <c r="D44">
         <v>100</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>15.653479999926342</v>
+        <f>E36*10^5</f>
+        <v>14.838619999999819</v>
       </c>
       <c r="F44">
         <v>100</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44" si="1">G36*10^5</f>
-        <v>15.217459999945461</v>
+        <f>G36*10^5</f>
+        <v>15.653479999926342</v>
       </c>
       <c r="H44">
         <v>100</v>
       </c>
       <c r="I44">
-        <f t="shared" ref="I44" si="2">I36*10^5</f>
+        <f>I36*10^5</f>
+        <v>15.217459999945461</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <f>K36*10^5</f>
         <v>13.556500000220199</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>1000</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>234.97159999999957</v>
+        <f>C37*10^5</f>
+        <v>284.91069999999939</v>
       </c>
       <c r="D45">
         <v>1000</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>191.6742999999594</v>
+        <f>E37*10^5</f>
+        <v>234.97159999999957</v>
       </c>
       <c r="F45">
         <v>1000</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45" si="3">G37*10^5</f>
-        <v>183.11229999994762</v>
+        <f>G37*10^5</f>
+        <v>191.6742999999594</v>
       </c>
       <c r="H45">
         <v>1000</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45" si="4">I37*10^5</f>
+        <f>I37*10^5</f>
+        <v>183.11229999994762</v>
+      </c>
+      <c r="J45">
+        <v>1000</v>
+      </c>
+      <c r="K45">
+        <f>K37*10^5</f>
         <v>179.4380399999788</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>10000</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>2491.1863199999962</v>
+        <f>C38*10^5</f>
+        <v>3150.0195799999942</v>
       </c>
       <c r="D46">
         <v>10000</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>1804.298679999898</v>
+        <f>E38*10^5</f>
+        <v>2491.1863199999962</v>
       </c>
       <c r="F46">
         <v>10000</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46" si="5">G38*10^5</f>
-        <v>1727.3566799998657</v>
+        <f>G38*10^5</f>
+        <v>1804.298679999898</v>
       </c>
       <c r="H46">
         <v>10000</v>
       </c>
       <c r="I46">
-        <f t="shared" ref="I46" si="6">I38*10^5</f>
+        <f>I38*10^5</f>
+        <v>1727.3566799998657</v>
+      </c>
+      <c r="J46">
+        <v>10000</v>
+      </c>
+      <c r="K46">
+        <f>K38*10^5</f>
         <v>1657.6171600001942</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>100000</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>26165.121919999958</v>
+        <f>C39*10^5</f>
+        <v>32514.253839999958</v>
       </c>
       <c r="D47">
         <v>100000</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>21399.921099999839</v>
+        <f>E39*10^5</f>
+        <v>26165.121919999958</v>
       </c>
       <c r="F47">
         <v>100000</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47" si="7">G39*10^5</f>
-        <v>20340.63826000016</v>
+        <f>G39*10^5</f>
+        <v>21399.921099999839</v>
       </c>
       <c r="H47">
         <v>100000</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47" si="8">I39*10^5</f>
+        <f>I39*10^5</f>
+        <v>20340.63826000016</v>
+      </c>
+      <c r="J47">
+        <v>100000</v>
+      </c>
+      <c r="K47">
+        <f>K39*10^5</f>
         <v>20255.64715999988</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1000000</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>417111.37281999981</v>
+        <f>C40*10^5</f>
+        <v>444783.55177999946</v>
       </c>
       <c r="D48">
         <v>1000000</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>323607.06677999976</v>
+        <f>E40*10^5</f>
+        <v>417111.37281999981</v>
       </c>
       <c r="F48">
         <v>1000000</v>
       </c>
       <c r="G48">
-        <f t="shared" ref="G48" si="9">G40*10^5</f>
-        <v>317738.01029999944</v>
+        <f>G40*10^5</f>
+        <v>323607.06677999976</v>
       </c>
       <c r="H48">
         <v>1000000</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48" si="10">I40*10^5</f>
+        <f>I40*10^5</f>
+        <v>317738.01029999944</v>
+      </c>
+      <c r="J48">
+        <v>1000000</v>
+      </c>
+      <c r="K48">
+        <f>K40*10^5</f>
         <v>312585.60415999999</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="4">
-        <f>C40/E40-1</f>
-        <v>0.28894395592284083</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4">
-        <f t="shared" ref="D52" si="11">E40/G40-1</f>
-        <v>1.847137040500435E-2</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4">
-        <f t="shared" ref="F52" si="12">G40/I40-1</f>
-        <v>1.6483184354715519E-2</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
+      <c r="B52" s="5">
+        <f>AVERAGE(C35/E35-1,C36/E36-1,C37/E37-1,C38/E38-1,C39/E39-1,C40/E40-1)</f>
+        <v>0.15058313129388765</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5">
+        <f>AVERAGE(E35/G35-1,E37/G37-1,E38/G38-1,E39/G39-1,E40/G40-1)</f>
+        <v>0.20878968749966789</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <f>AVERAGE(G35/I35-1,G36/I36-1,G37/I37-1,G38/I38-1,G39/I39-1,G40/I40-1)</f>
+        <v>3.0697272586721242E-2</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5">
+        <f>AVERAGE(I35/K35-1,I36/K36-1,I37/K37-1,I38/K38-1,I39/K39-1,I40/K40-1)</f>
+        <v>3.4336295527382633E-2</v>
+      </c>
       <c r="I52" s="5"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B58:I60"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
+  <mergeCells count="21">
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B58:I60"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab3/timing data.xlsx
+++ b/lab3/timing data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmaw\OneDrive\Documents\2XC3\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B6762-78F3-5143-96DB-BD3F84A062A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF51A39-71DE-49ED-BA5A-44F18069CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{2DC99A1B-3062-8B4F-B963-CDB1AC333640}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DC99A1B-3062-8B4F-B963-CDB1AC333640}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{823C4D9A-25E1-AC40-B4AA-80C2AFD4EB41}" name="nocopy" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/nocopy.csv" comma="1">
+    <textPr sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/nocopy.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -86,10 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>1-pviot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>2 pivot</t>
   </si>
@@ -127,19 +124,52 @@
     <t>3 to 4</t>
   </si>
   <si>
-    <t>no copy</t>
-  </si>
-  <si>
-    <t>1-pivot avg</t>
-  </si>
-  <si>
-    <t>no copy avg</t>
-  </si>
-  <si>
     <t>nocopy to 1</t>
   </si>
   <si>
     <t>There is a an average 20 percent increase in performace speed between a single copy quicksoft and a dual pivot quicksoft. Further tests showed a 1 to 5% performance increase with each consecutive increase in the number of pivots</t>
+  </si>
+  <si>
+    <t>random list</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>(using dual pivot quicksort)</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>quicksort</t>
+  </si>
+  <si>
+    <t>bubble</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>reverse sorted</t>
+  </si>
+  <si>
+    <t>in-place avg</t>
+  </si>
+  <si>
+    <t>in-place</t>
+  </si>
+  <si>
+    <t>1 pivot avg</t>
+  </si>
+  <si>
+    <t>1 pivot</t>
   </si>
 </sst>
 </file>
@@ -185,18 +215,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,7 +273,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -249,8 +286,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Preformance</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Performance of Variations on Quicksort</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -268,7 +305,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -286,7 +323,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7613956269579204E-2"/>
+          <c:y val="0.10888054858527299"/>
+          <c:w val="0.87528389848446353"/>
+          <c:h val="0.82229622739465258"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -294,15 +341,7 @@
           <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>no copy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>in-place</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -398,7 +437,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -409,11 +448,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -575,20 +614,12 @@
           <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3 pivot avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>3 pivot</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -599,11 +630,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -674,15 +705,7 @@
           <c:idx val="3"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4 pivot avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>4 pivot</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -785,6 +808,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -824,7 +848,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -886,7 +910,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -915,6 +939,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2518644704007269"/>
+          <c:y val="0.36325008152670091"/>
+          <c:w val="0.12481558504783677"/>
+          <c:h val="0.24839166738773039"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -928,7 +962,1776 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600"/>
+              <a:t>Average &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" baseline="0"/>
+              <a:t> Worst Case Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.199317764488619E-2"/>
+          <c:y val="0.12309783153651141"/>
+          <c:w val="0.89889903654408587"/>
+          <c:h val="0.79637412243823869"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random list</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$64:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$64:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.6119999999567453E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8275999999998152E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3543579999999939E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1070765599999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.421446179999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.37891819999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0FD-41F7-AC9F-E60BF485C752}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reverse sorted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$64:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$64:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.4839999999862665E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8355400000001901E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42934795999999958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0FD-41F7-AC9F-E60BF485C752}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92252656"/>
+        <c:axId val="92256400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92252656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92256400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92256400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92252656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5770506904655703E-2"/>
+          <c:y val="0.32949610236137666"/>
+          <c:w val="0.33962862475852423"/>
+          <c:h val="5.6165175551482725E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600"/>
+              <a:t>Performance of Various Sorts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7823480565062247E-2"/>
+          <c:y val="0.12990697258682216"/>
+          <c:w val="0.90252991561769491"/>
+          <c:h val="0.77182390110078991"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quicksort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$91:$H$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$91:$I$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.28043476000002499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2414296199998712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3036439999777918E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8338400000102383E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7006799998816828E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.560399999918423E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6160220000074325E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4410199999401621E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A875-45F9-B22A-1E7E5C4219BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$91:$H$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$91:$J$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.28758909999987681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15589578000008233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34132672000005143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3323251400000114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4826824400000076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52594416000001698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0877259799999581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80125362000017031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A875-45F9-B22A-1E7E5C4219BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$91:$H$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$91:$K$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.1025799999733821E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5459600000212923E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7348800000945592E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8846000009871079E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7894000009545899E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4354000002567638E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7959800000426167E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.628440000058614E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A875-45F9-B22A-1E7E5C4219BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$91:$H$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$91:$L$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.30817767999997103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26100206000000947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25772417999987679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1688140399998696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15598855999996838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27176720000015797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34807121999992841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24972786000016606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A875-45F9-B22A-1E7E5C4219BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1682448704"/>
+        <c:axId val="1682442464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1682448704"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682442464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1682442464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682448704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9061783968429033E-2"/>
+          <c:y val="0.29572707278295118"/>
+          <c:w val="0.51803982892778411"/>
+          <c:h val="5.8910187314761754E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600"/>
+              <a:t>Traditional Vs. In-Place</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" baseline="0"/>
+              <a:t> Quicksort Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0660911512930719E-2"/>
+          <c:y val="0.13639961681618695"/>
+          <c:w val="0.87282669767523891"/>
+          <c:h val="0.7770970438750886"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>in-place</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7819800000001099E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5975639999999921E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.849106999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1500195799999943E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32514253839999957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4478355177999944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0445-43FF-9DEB-57483D1FA73C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>traditional</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$35:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7120000000000981E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.483861999999982E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3497159999999956E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.491186319999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26165121919999956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1711137281999981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0445-43FF-9DEB-57483D1FA73C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="151764352"/>
+        <c:axId val="151765600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="151764352"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151765600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="151765600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151764352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16153116653706578"/>
+          <c:y val="0.62449259879706476"/>
+          <c:w val="0.30098063522918084"/>
+          <c:h val="5.843788527086808E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1028,6 +2831,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1544,20 +3467,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>214761</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3714</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>196921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>690702</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>111404</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>616450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>196921</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1582,27 +5053,135 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224092</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>174888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>222608</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>128426</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBB074A-B121-485C-B83F-1274EE05B7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368157</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>51371</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D07DFC-8B50-4DB0-A17D-B37C35FC5196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205483</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>111303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428089</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>102741</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31200FC-A274-498D-96BB-253F790BFBE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="nocopy" connectionId="5" xr16:uid="{3E255610-454C-3845-A508-0FFD45547B6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="4pivot" connectionId="4" xr16:uid="{51BEFBC1-6D0C-C540-A13B-F987C1CB9F1A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="4pivot" connectionId="4" xr16:uid="{51BEFBC1-6D0C-C540-A13B-F987C1CB9F1A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="3pivot" connectionId="3" xr16:uid="{29EEF6AF-DCA4-3E46-A7A2-408E4FA24EF6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="3pivot" connectionId="3" xr16:uid="{29EEF6AF-DCA4-3E46-A7A2-408E4FA24EF6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2pivot" connectionId="2" xr16:uid="{BA9AD5D7-E956-6E4E-826A-A9029CA2C89A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2pivot" connectionId="2" xr16:uid="{BA9AD5D7-E956-6E4E-826A-A9029CA2C89A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1pivot" connectionId="1" xr16:uid="{EEA8E525-FD32-CF42-ADE7-5E0C29562363}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1pivot" connectionId="1" xr16:uid="{EEA8E525-FD32-CF42-ADE7-5E0C29562363}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="nocopy" connectionId="5" xr16:uid="{3E255610-454C-3845-A508-0FFD45547B6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1902,49 +5481,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BF6B81-88B5-9C4F-8727-A1C565B4078D}">
-  <dimension ref="B2:K60"/>
+  <dimension ref="B2:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N8" zoomScale="75" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>10</v>
       </c>
@@ -1976,7 +5555,7 @@
         <v>2.3675999997862999E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -2008,7 +5587,7 @@
         <v>1.8316999998546601E-5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10</v>
       </c>
@@ -2040,7 +5619,7 @@
         <v>1.5910000001895201E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>10</v>
       </c>
@@ -2072,7 +5651,7 @@
         <v>1.9144000006576701E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10</v>
       </c>
@@ -2104,7 +5683,7 @@
         <v>1.5981999993641599E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>100</v>
       </c>
@@ -2136,7 +5715,7 @@
         <v>1.5822000000298401E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>100</v>
       </c>
@@ -2168,7 +5747,7 @@
         <v>1.3352000000566001E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>100</v>
       </c>
@@ -2200,7 +5779,7 @@
         <v>1.2262100000270899E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>100</v>
       </c>
@@ -2232,7 +5811,7 @@
         <v>1.4253099999450499E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>100</v>
       </c>
@@ -2264,7 +5843,7 @@
         <v>1.20933000005152E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1000</v>
       </c>
@@ -2296,7 +5875,7 @@
         <v>1.63016999999854E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1000</v>
       </c>
@@ -2328,7 +5907,7 @@
         <v>1.5299530000021299E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1000</v>
       </c>
@@ -2360,7 +5939,7 @@
         <v>1.5986089999984101E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1000</v>
       </c>
@@ -2392,7 +5971,7 @@
         <v>1.7472929999939801E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1000</v>
       </c>
@@ -2424,7 +6003,7 @@
         <v>2.4658770000058798E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>10000</v>
       </c>
@@ -2456,7 +6035,7 @@
         <v>1.8794282000001699E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>10000</v>
       </c>
@@ -2488,7 +6067,7 @@
         <v>1.53784459999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>10000</v>
       </c>
@@ -2520,7 +6099,7 @@
         <v>1.7249126000009999E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>10000</v>
       </c>
@@ -2552,7 +6131,7 @@
         <v>1.5926407999998501E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>10000</v>
       </c>
@@ -2584,7 +6163,7 @@
         <v>1.55325959999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>100000</v>
       </c>
@@ -2616,7 +6195,7 @@
         <v>0.19631698399999201</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>100000</v>
       </c>
@@ -2648,7 +6227,7 @@
         <v>0.21646933799999599</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>100000</v>
       </c>
@@ -2680,7 +6259,7 @@
         <v>0.20472369300000501</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>100000</v>
       </c>
@@ -2712,7 +6291,7 @@
         <v>0.207334672000001</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>100000</v>
       </c>
@@ -2744,7 +6323,7 @@
         <v>0.187937671</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1000000</v>
       </c>
@@ -2776,7 +6355,7 @@
         <v>3.1147698620000002</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1000000</v>
       </c>
@@ -2808,7 +6387,7 @@
         <v>2.9951816360000101</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1000000</v>
       </c>
@@ -2840,7 +6419,7 @@
         <v>3.1555629779999999</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1000000</v>
       </c>
@@ -2872,7 +6451,7 @@
         <v>3.1459090939999901</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1000000</v>
       </c>
@@ -2904,283 +6483,283 @@
         <v>3.2178566380000002</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35">
-        <f>AVERAGE(B3:B7)</f>
+        <f t="shared" ref="B35:K35" si="0">AVERAGE(B3:B7)</f>
         <v>10</v>
       </c>
       <c r="C35" s="2">
-        <f>AVERAGE(C3:C7)</f>
+        <f t="shared" si="0"/>
         <v>1.7819800000001099E-5</v>
       </c>
       <c r="D35">
-        <f>AVERAGE(D3:D7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E35" s="2">
-        <f>AVERAGE(E3:E7)</f>
+        <f t="shared" si="0"/>
         <v>1.7120000000000981E-5</v>
       </c>
       <c r="F35">
-        <f>AVERAGE(F3:F7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G35" s="2">
-        <f>AVERAGE(G3:G7)</f>
+        <f t="shared" si="0"/>
         <v>1.8493199999625118E-5</v>
       </c>
       <c r="H35">
-        <f>AVERAGE(H3:H7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I35" s="2">
-        <f>AVERAGE(I3:I7)</f>
+        <f t="shared" si="0"/>
         <v>1.8610799999407759E-5</v>
       </c>
       <c r="J35">
-        <f>AVERAGE(J3:J7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K35" s="1">
-        <f>AVERAGE(K3:K7)</f>
+        <f t="shared" si="0"/>
         <v>1.860579999970462E-5</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36">
-        <f>AVERAGE(B8:B12)</f>
+        <f t="shared" ref="B36:K36" si="1">AVERAGE(B8:B12)</f>
         <v>100</v>
       </c>
       <c r="C36" s="2">
-        <f>AVERAGE(C8:C12)</f>
+        <f t="shared" si="1"/>
         <v>1.5975639999999921E-4</v>
       </c>
       <c r="D36">
-        <f>AVERAGE(D8:D12)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E36" s="2">
-        <f>AVERAGE(E8:E12)</f>
+        <f t="shared" si="1"/>
         <v>1.483861999999982E-4</v>
       </c>
       <c r="F36">
-        <f>AVERAGE(F8:F12)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G36" s="2">
-        <f>AVERAGE(G8:G12)</f>
+        <f t="shared" si="1"/>
         <v>1.5653479999926342E-4</v>
       </c>
       <c r="H36">
-        <f>AVERAGE(H8:H12)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I36" s="2">
-        <f>AVERAGE(I8:I12)</f>
+        <f t="shared" si="1"/>
         <v>1.5217459999945462E-4</v>
       </c>
       <c r="J36">
-        <f>AVERAGE(J8:J12)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K36" s="1">
-        <f>AVERAGE(K8:K12)</f>
+        <f t="shared" si="1"/>
         <v>1.3556500000220199E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37">
-        <f>AVERAGE(B13:B17)</f>
+        <f t="shared" ref="B37:K37" si="2">AVERAGE(B13:B17)</f>
         <v>1000</v>
       </c>
       <c r="C37" s="2">
-        <f>AVERAGE(C13:C17)</f>
+        <f t="shared" si="2"/>
         <v>2.849106999999994E-3</v>
       </c>
       <c r="D37">
-        <f>AVERAGE(D13:D17)</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E37" s="2">
-        <f>AVERAGE(E13:E17)</f>
+        <f t="shared" si="2"/>
         <v>2.3497159999999956E-3</v>
       </c>
       <c r="F37">
-        <f>AVERAGE(F13:F17)</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="G37" s="2">
-        <f>AVERAGE(G13:G17)</f>
+        <f t="shared" si="2"/>
         <v>1.9167429999995939E-3</v>
       </c>
       <c r="H37">
-        <f>AVERAGE(H13:H17)</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="I37" s="2">
-        <f>AVERAGE(I13:I17)</f>
+        <f t="shared" si="2"/>
         <v>1.8311229999994762E-3</v>
       </c>
       <c r="J37">
-        <f>AVERAGE(J13:J17)</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="K37" s="1">
-        <f>AVERAGE(K13:K17)</f>
+        <f t="shared" si="2"/>
         <v>1.794380399999788E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38">
-        <f>AVERAGE(B18:B22)</f>
+        <f t="shared" ref="B38:K38" si="3">AVERAGE(B18:B22)</f>
         <v>10000</v>
       </c>
       <c r="C38" s="2">
-        <f>AVERAGE(C18:C22)</f>
+        <f t="shared" si="3"/>
         <v>3.1500195799999943E-2</v>
       </c>
       <c r="D38">
-        <f>AVERAGE(D18:D22)</f>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="E38" s="2">
-        <f>AVERAGE(E18:E22)</f>
+        <f t="shared" si="3"/>
         <v>2.491186319999996E-2</v>
       </c>
       <c r="F38">
-        <f>AVERAGE(F18:F22)</f>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="G38" s="2">
-        <f>AVERAGE(G18:G22)</f>
+        <f t="shared" si="3"/>
         <v>1.8042986799998981E-2</v>
       </c>
       <c r="H38">
-        <f>AVERAGE(H18:H22)</f>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="I38" s="2">
-        <f>AVERAGE(I18:I22)</f>
+        <f t="shared" si="3"/>
         <v>1.7273566799998658E-2</v>
       </c>
       <c r="J38">
-        <f>AVERAGE(J18:J22)</f>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="K38" s="1">
-        <f>AVERAGE(K18:K22)</f>
+        <f t="shared" si="3"/>
         <v>1.6576171600001941E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39">
-        <f>AVERAGE(B23:B27)</f>
+        <f t="shared" ref="B39:K39" si="4">AVERAGE(B23:B27)</f>
         <v>100000</v>
       </c>
       <c r="C39" s="2">
-        <f>AVERAGE(C23:C27)</f>
+        <f t="shared" si="4"/>
         <v>0.32514253839999957</v>
       </c>
       <c r="D39">
-        <f>AVERAGE(D23:D27)</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="E39" s="2">
-        <f>AVERAGE(E23:E27)</f>
+        <f t="shared" si="4"/>
         <v>0.26165121919999956</v>
       </c>
       <c r="F39">
-        <f>AVERAGE(F23:F27)</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="G39" s="2">
-        <f>AVERAGE(G23:G27)</f>
+        <f t="shared" si="4"/>
         <v>0.21399921099999841</v>
       </c>
       <c r="H39">
-        <f>AVERAGE(H23:H27)</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="I39" s="2">
-        <f>AVERAGE(I23:I27)</f>
+        <f t="shared" si="4"/>
         <v>0.2034063826000016</v>
       </c>
       <c r="J39">
-        <f>AVERAGE(J23:J27)</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="K39" s="1">
-        <f>AVERAGE(K23:K27)</f>
+        <f t="shared" si="4"/>
         <v>0.20255647159999879</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40">
-        <f>AVERAGE(B28:B32)</f>
+        <f t="shared" ref="B40:K40" si="5">AVERAGE(B28:B32)</f>
         <v>1000000</v>
       </c>
       <c r="C40" s="2">
-        <f>AVERAGE(C28:C32)</f>
+        <f t="shared" si="5"/>
         <v>4.4478355177999944</v>
       </c>
       <c r="D40">
-        <f>AVERAGE(D28:D32)</f>
+        <f t="shared" si="5"/>
         <v>1000000</v>
       </c>
       <c r="E40" s="2">
-        <f>AVERAGE(E28:E32)</f>
+        <f t="shared" si="5"/>
         <v>4.1711137281999981</v>
       </c>
       <c r="F40">
-        <f>AVERAGE(F28:F32)</f>
+        <f t="shared" si="5"/>
         <v>1000000</v>
       </c>
       <c r="G40" s="2">
-        <f>AVERAGE(G28:G32)</f>
+        <f t="shared" si="5"/>
         <v>3.2360706677999977</v>
       </c>
       <c r="H40">
-        <f>AVERAGE(H28:H32)</f>
+        <f t="shared" si="5"/>
         <v>1000000</v>
       </c>
       <c r="I40" s="2">
-        <f>AVERAGE(I28:I32)</f>
+        <f t="shared" si="5"/>
         <v>3.1773801029999942</v>
       </c>
       <c r="J40">
-        <f>AVERAGE(J28:J32)</f>
+        <f t="shared" si="5"/>
         <v>1000000</v>
       </c>
       <c r="K40" s="1">
-        <f>AVERAGE(K28:K32)</f>
+        <f t="shared" si="5"/>
         <v>3.1258560416000001</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3192,231 +6771,231 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43">
-        <f>C35*10^5</f>
+        <f t="shared" ref="C43:C48" si="6">C35*10^5</f>
         <v>1.78198000000011</v>
       </c>
       <c r="D43">
         <v>10</v>
       </c>
       <c r="E43">
-        <f>E35*10^5</f>
+        <f t="shared" ref="E43:E48" si="7">E35*10^5</f>
         <v>1.7120000000000981</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
       <c r="G43">
-        <f>G35*10^5</f>
+        <f t="shared" ref="G43:G48" si="8">G35*10^5</f>
         <v>1.8493199999625118</v>
       </c>
       <c r="H43">
         <v>10</v>
       </c>
       <c r="I43">
-        <f>I35*10^5</f>
+        <f t="shared" ref="I43:I48" si="9">I35*10^5</f>
         <v>1.8610799999407759</v>
       </c>
       <c r="J43">
         <v>10</v>
       </c>
       <c r="K43">
-        <f>K35*10^5</f>
+        <f t="shared" ref="K43:K48" si="10">K35*10^5</f>
         <v>1.860579999970462</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>100</v>
       </c>
       <c r="C44">
-        <f>C36*10^5</f>
+        <f t="shared" si="6"/>
         <v>15.97563999999992</v>
       </c>
       <c r="D44">
         <v>100</v>
       </c>
       <c r="E44">
-        <f>E36*10^5</f>
+        <f t="shared" si="7"/>
         <v>14.838619999999819</v>
       </c>
       <c r="F44">
         <v>100</v>
       </c>
       <c r="G44">
-        <f>G36*10^5</f>
+        <f t="shared" si="8"/>
         <v>15.653479999926342</v>
       </c>
       <c r="H44">
         <v>100</v>
       </c>
       <c r="I44">
-        <f>I36*10^5</f>
+        <f t="shared" si="9"/>
         <v>15.217459999945461</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44">
-        <f>K36*10^5</f>
+        <f t="shared" si="10"/>
         <v>13.556500000220199</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1000</v>
       </c>
       <c r="C45">
-        <f>C37*10^5</f>
+        <f t="shared" si="6"/>
         <v>284.91069999999939</v>
       </c>
       <c r="D45">
         <v>1000</v>
       </c>
       <c r="E45">
-        <f>E37*10^5</f>
+        <f t="shared" si="7"/>
         <v>234.97159999999957</v>
       </c>
       <c r="F45">
         <v>1000</v>
       </c>
       <c r="G45">
-        <f>G37*10^5</f>
+        <f t="shared" si="8"/>
         <v>191.6742999999594</v>
       </c>
       <c r="H45">
         <v>1000</v>
       </c>
       <c r="I45">
-        <f>I37*10^5</f>
+        <f t="shared" si="9"/>
         <v>183.11229999994762</v>
       </c>
       <c r="J45">
         <v>1000</v>
       </c>
       <c r="K45">
-        <f>K37*10^5</f>
+        <f t="shared" si="10"/>
         <v>179.4380399999788</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>10000</v>
       </c>
       <c r="C46">
-        <f>C38*10^5</f>
+        <f t="shared" si="6"/>
         <v>3150.0195799999942</v>
       </c>
       <c r="D46">
         <v>10000</v>
       </c>
       <c r="E46">
-        <f>E38*10^5</f>
+        <f t="shared" si="7"/>
         <v>2491.1863199999962</v>
       </c>
       <c r="F46">
         <v>10000</v>
       </c>
       <c r="G46">
-        <f>G38*10^5</f>
+        <f t="shared" si="8"/>
         <v>1804.298679999898</v>
       </c>
       <c r="H46">
         <v>10000</v>
       </c>
       <c r="I46">
-        <f>I38*10^5</f>
+        <f t="shared" si="9"/>
         <v>1727.3566799998657</v>
       </c>
       <c r="J46">
         <v>10000</v>
       </c>
       <c r="K46">
-        <f>K38*10^5</f>
+        <f t="shared" si="10"/>
         <v>1657.6171600001942</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>100000</v>
       </c>
       <c r="C47">
-        <f>C39*10^5</f>
+        <f t="shared" si="6"/>
         <v>32514.253839999958</v>
       </c>
       <c r="D47">
         <v>100000</v>
       </c>
       <c r="E47">
-        <f>E39*10^5</f>
+        <f t="shared" si="7"/>
         <v>26165.121919999958</v>
       </c>
       <c r="F47">
         <v>100000</v>
       </c>
       <c r="G47">
-        <f>G39*10^5</f>
+        <f t="shared" si="8"/>
         <v>21399.921099999839</v>
       </c>
       <c r="H47">
         <v>100000</v>
       </c>
       <c r="I47">
-        <f>I39*10^5</f>
+        <f t="shared" si="9"/>
         <v>20340.63826000016</v>
       </c>
       <c r="J47">
         <v>100000</v>
       </c>
       <c r="K47">
-        <f>K39*10^5</f>
+        <f t="shared" si="10"/>
         <v>20255.64715999988</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>1000000</v>
       </c>
       <c r="C48">
-        <f>C40*10^5</f>
+        <f t="shared" si="6"/>
         <v>444783.55177999946</v>
       </c>
       <c r="D48">
         <v>1000000</v>
       </c>
       <c r="E48">
-        <f>E40*10^5</f>
+        <f t="shared" si="7"/>
         <v>417111.37281999981</v>
       </c>
       <c r="F48">
         <v>1000000</v>
       </c>
       <c r="G48">
-        <f>G40*10^5</f>
+        <f t="shared" si="8"/>
         <v>323607.06677999976</v>
       </c>
       <c r="H48">
         <v>1000000</v>
       </c>
       <c r="I48">
-        <f>I40*10^5</f>
+        <f t="shared" si="9"/>
         <v>317738.01029999944</v>
       </c>
       <c r="J48">
         <v>1000000</v>
       </c>
       <c r="K48">
-        <f>K40*10^5</f>
+        <f t="shared" si="10"/>
         <v>312585.60415999999</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3426,85 +7005,1239 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="5">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="6">
         <f>AVERAGE(C35/E35-1,C36/E36-1,C37/E37-1,C38/E38-1,C39/E39-1,C40/E40-1)</f>
         <v>0.15058313129388765</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
         <f>AVERAGE(E35/G35-1,E37/G37-1,E38/G38-1,E39/G39-1,E40/G40-1)</f>
         <v>0.20878968749966789</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
         <f>AVERAGE(G35/I35-1,G36/I36-1,G37/I37-1,G38/I38-1,G39/I39-1,G40/I40-1)</f>
         <v>3.0697272586721242E-2</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6">
         <f>AVERAGE(I35/K35-1,I36/K36-1,I37/K37-1,I38/K38-1,I39/K39-1,I40/K40-1)</f>
         <v>3.4336295527382633E-2</v>
       </c>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f>(C40/E40)-1</f>
+        <v>6.6342422583479443E-2</v>
+      </c>
+      <c r="C53">
+        <f>C37/E37-1</f>
+        <v>0.21253249328855039</v>
+      </c>
+      <c r="D53">
+        <f>E35/G35-1</f>
+        <v>-7.4254320488178038E-2</v>
+      </c>
+      <c r="E53">
+        <f>E36/G36-1</f>
+        <v>-5.2056156198516668E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" s="7">
+        <v>8.8699999999164407E-5</v>
+      </c>
+      <c r="D64" s="7">
+        <v>5.6600000000628302E-5</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>8.6119999999567453E-5</v>
+      </c>
+      <c r="H64">
+        <v>9.4839999999862665E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" s="7">
+        <v>7.0399999998471604E-5</v>
+      </c>
+      <c r="D65">
+        <v>1.01500000006637E-4</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>2.8275999999998152E-3</v>
+      </c>
+      <c r="H65">
+        <v>4.8355400000001901E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66" s="7">
+        <v>7.9399999997065097E-5</v>
+      </c>
+      <c r="D66" s="7">
+        <v>9.0399999997714504E-5</v>
+      </c>
+      <c r="F66">
+        <v>1000</v>
+      </c>
+      <c r="G66">
+        <v>1.3543579999999939E-2</v>
+      </c>
+      <c r="H66">
+        <v>0.42934795999999958</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7">
+        <v>7.4699999998983899E-5</v>
+      </c>
+      <c r="D67" s="7">
+        <v>6.1299999998709595E-5</v>
+      </c>
+      <c r="F67">
+        <v>10000</v>
+      </c>
+      <c r="G67">
+        <v>0.1070765599999995</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" s="7">
+        <v>7.9999999996971301E-5</v>
+      </c>
+      <c r="D68" s="7">
+        <v>9.7799999998926496E-5</v>
+      </c>
+      <c r="F68">
+        <v>100000</v>
+      </c>
+      <c r="G68">
+        <v>1.421446179999996</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>8.4559999999811398E-4</v>
+      </c>
+      <c r="D69">
+        <v>2.0596000000025999E-3</v>
+      </c>
+      <c r="F69">
+        <v>1000000</v>
+      </c>
+      <c r="G69">
+        <v>16.37891819999998</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>6.8530000000066496E-4</v>
+      </c>
+      <c r="D70">
+        <v>3.81680000000272E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>5.3580000000152896E-4</v>
+      </c>
+      <c r="D71">
+        <v>2.10290000000412E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>7.4039999999797601E-4</v>
+      </c>
+      <c r="D72">
+        <v>2.1424999999979299E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>6.2840000000363705E-4</v>
+      </c>
+      <c r="D73">
+        <v>3.5913000000036199E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1000</v>
+      </c>
+      <c r="C74">
+        <v>7.69090000000005E-3</v>
+      </c>
+      <c r="D74">
+        <v>0.229743900000002</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1000</v>
+      </c>
+      <c r="C75">
+        <v>1.20711E-2</v>
+      </c>
+      <c r="D75">
+        <v>0.193515400000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1000</v>
+      </c>
+      <c r="C76">
+        <v>1.0755500000001901E-2</v>
+      </c>
+      <c r="D76">
+        <v>0.20230980000000101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>1000</v>
+      </c>
+      <c r="C77">
+        <v>5.4163999999943197E-3</v>
+      </c>
+      <c r="D77">
+        <v>0.22189420000000101</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1000</v>
+      </c>
+      <c r="C78">
+        <v>6.5902999999991599E-3</v>
+      </c>
+      <c r="D78">
+        <v>0.240617999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>10000</v>
+      </c>
+      <c r="C79">
+        <v>9.0372899999998396E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>10000</v>
+      </c>
+      <c r="C80">
+        <v>7.84933999999992E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>10000</v>
+      </c>
+      <c r="C81">
+        <v>8.3359999999998893E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>10000</v>
+      </c>
+      <c r="C82">
+        <v>0.104974099999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>10000</v>
+      </c>
+      <c r="C83">
+        <v>0.13532140000000201</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1E-4</v>
+      </c>
+      <c r="C91">
+        <v>0.21234819999972299</v>
+      </c>
+      <c r="D91">
+        <v>0.18781869999975201</v>
+      </c>
+      <c r="E91">
+        <v>1.84589999980744E-3</v>
+      </c>
+      <c r="F91">
+        <v>0.31906759999992501</v>
+      </c>
+      <c r="H91">
+        <v>1E-4</v>
+      </c>
+      <c r="I91">
+        <v>0.28043476000002499</v>
+      </c>
+      <c r="J91">
+        <v>0.28758909999987681</v>
+      </c>
+      <c r="K91">
+        <v>2.1025799999733821E-3</v>
+      </c>
+      <c r="L91">
+        <v>0.30817767999997103</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1E-4</v>
+      </c>
+      <c r="C92">
+        <v>0.21296940000001899</v>
+      </c>
+      <c r="D92">
+        <v>0.40828160000000902</v>
+      </c>
+      <c r="E92">
+        <v>2.65390000004117E-3</v>
+      </c>
+      <c r="F92">
+        <v>0.31913040000017601</v>
+      </c>
+      <c r="H92">
+        <v>1E-3</v>
+      </c>
+      <c r="I92">
+        <v>0.2414296199998712</v>
+      </c>
+      <c r="J92">
+        <v>0.15589578000008233</v>
+      </c>
+      <c r="K92">
+        <v>1.5459600000212923E-3</v>
+      </c>
+      <c r="L92">
+        <v>0.26100206000000947</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1E-4</v>
+      </c>
+      <c r="C93">
+        <v>0.34986460000027297</v>
+      </c>
+      <c r="D93">
+        <v>0.25460879999991398</v>
+      </c>
+      <c r="E93">
+        <v>1.97519999983342E-3</v>
+      </c>
+      <c r="F93">
+        <v>0.30605379999997201</v>
+      </c>
+      <c r="H93">
+        <v>0.01</v>
+      </c>
+      <c r="I93">
+        <v>5.3036439999777918E-2</v>
+      </c>
+      <c r="J93">
+        <v>0.34132672000005143</v>
+      </c>
+      <c r="K93">
+        <v>1.7348800000945592E-3</v>
+      </c>
+      <c r="L93">
+        <v>0.25772417999987679</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1E-4</v>
+      </c>
+      <c r="C94">
+        <v>0.30742520000012502</v>
+      </c>
+      <c r="D94">
+        <v>0.44503839999970202</v>
+      </c>
+      <c r="E94">
+        <v>1.8890000001192599E-3</v>
+      </c>
+      <c r="F94">
+        <v>0.359977999999955</v>
+      </c>
+      <c r="H94">
+        <v>0.1</v>
+      </c>
+      <c r="I94">
+        <v>9.8338400000102383E-3</v>
+      </c>
+      <c r="J94">
+        <v>0.3323251400000114</v>
+      </c>
+      <c r="K94">
+        <v>9.8846000009871079E-4</v>
+      </c>
+      <c r="L94">
+        <v>0.1688140399998696</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>1E-4</v>
+      </c>
+      <c r="C95">
+        <v>0.31956639999998498</v>
+      </c>
+      <c r="D95">
+        <v>0.14219800000000701</v>
+      </c>
+      <c r="E95">
+        <v>2.1489000000656198E-3</v>
+      </c>
+      <c r="F95">
+        <v>0.236658599999827</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>5.7006799998816828E-3</v>
+      </c>
+      <c r="J95">
+        <v>0.4826824400000076</v>
+      </c>
+      <c r="K95">
+        <v>9.7894000009545899E-4</v>
+      </c>
+      <c r="L95">
+        <v>0.15598855999996838</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1E-3</v>
+      </c>
+      <c r="C96">
+        <v>0.30477569999993598</v>
+      </c>
+      <c r="D96">
+        <v>6.2823000000207602E-2</v>
+      </c>
+      <c r="E96">
+        <v>2.03289999990374E-3</v>
+      </c>
+      <c r="F96">
+        <v>0.33626110000022802</v>
+      </c>
+      <c r="H96">
+        <v>10</v>
+      </c>
+      <c r="I96">
+        <v>9.560399999918423E-3</v>
+      </c>
+      <c r="J96">
+        <v>0.52594416000001698</v>
+      </c>
+      <c r="K96">
+        <v>9.4354000002567638E-4</v>
+      </c>
+      <c r="L96">
+        <v>0.27176720000015797</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1E-3</v>
+      </c>
+      <c r="C97">
+        <v>0.22242879999976101</v>
+      </c>
+      <c r="D97">
+        <v>8.6513400000057999E-2</v>
+      </c>
+      <c r="E97">
+        <v>8.8910000022224202E-4</v>
+      </c>
+      <c r="F97">
+        <v>0.23127879999992701</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>1.6160220000074325E-2</v>
+      </c>
+      <c r="J97">
+        <v>1.0877259799999581</v>
+      </c>
+      <c r="K97">
+        <v>1.7959800000426167E-3</v>
+      </c>
+      <c r="L97">
+        <v>0.34807121999992841</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1E-3</v>
+      </c>
+      <c r="C98">
+        <v>0.206986300000153</v>
+      </c>
+      <c r="D98">
+        <v>0.14003640000009901</v>
+      </c>
+      <c r="E98">
+        <v>8.9720000005399903E-4</v>
+      </c>
+      <c r="F98">
+        <v>0.21940969999968701</v>
+      </c>
+      <c r="H98">
+        <v>1000</v>
+      </c>
+      <c r="I98">
+        <v>9.4410199999401621E-3</v>
+      </c>
+      <c r="J98">
+        <v>0.80125362000017031</v>
+      </c>
+      <c r="K98">
+        <v>1.628440000058614E-3</v>
+      </c>
+      <c r="L98">
+        <v>0.24972786000016606</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1E-3</v>
+      </c>
+      <c r="C99">
+        <v>0.28791999999975798</v>
+      </c>
+      <c r="D99">
+        <v>0.22952489999988701</v>
+      </c>
+      <c r="E99">
+        <v>1.8011000001933999E-3</v>
+      </c>
+      <c r="F99">
+        <v>0.26367849999996901</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1E-3</v>
+      </c>
+      <c r="C100">
+        <v>0.185037299999748</v>
+      </c>
+      <c r="D100">
+        <v>0.26058120000016</v>
+      </c>
+      <c r="E100">
+        <v>2.1094999997330801E-3</v>
+      </c>
+      <c r="F100">
+        <v>0.25438220000023598</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>0.01</v>
+      </c>
+      <c r="C101">
+        <v>5.32358999998905E-2</v>
+      </c>
+      <c r="D101">
+        <v>0.28177170000026303</v>
+      </c>
+      <c r="E101">
+        <v>1.93780000017795E-3</v>
+      </c>
+      <c r="F101">
+        <v>0.26041390000000297</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0.01</v>
+      </c>
+      <c r="C102">
+        <v>5.3405499999826099E-2</v>
+      </c>
+      <c r="D102">
+        <v>0.29502119999960902</v>
+      </c>
+      <c r="E102">
+        <v>1.9740000002457202E-3</v>
+      </c>
+      <c r="F102">
+        <v>0.28318529999978598</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>0.01</v>
+      </c>
+      <c r="C103">
+        <v>6.3598999999612701E-2</v>
+      </c>
+      <c r="D103">
+        <v>0.53225840000004598</v>
+      </c>
+      <c r="E103">
+        <v>1.8724999999903901E-3</v>
+      </c>
+      <c r="F103">
+        <v>0.391756600000007</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>0.01</v>
+      </c>
+      <c r="C104">
+        <v>6.2163699999928199E-2</v>
+      </c>
+      <c r="D104">
+        <v>0.339334000000235</v>
+      </c>
+      <c r="E104">
+        <v>1.9661999999698301E-3</v>
+      </c>
+      <c r="F104">
+        <v>0.167922899999666</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>0.01</v>
+      </c>
+      <c r="C105">
+        <v>3.2778099999632097E-2</v>
+      </c>
+      <c r="D105">
+        <v>0.25824830000010401</v>
+      </c>
+      <c r="E105">
+        <v>9.2390000008890595E-4</v>
+      </c>
+      <c r="F105">
+        <v>0.18534219999992199</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>0.1</v>
+      </c>
+      <c r="C106">
+        <v>1.89543000001322E-2</v>
+      </c>
+      <c r="D106">
+        <v>0.35487460000012999</v>
+      </c>
+      <c r="E106">
+        <v>8.8199999981952704E-4</v>
+      </c>
+      <c r="F106">
+        <v>0.17686089999960999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>0.1</v>
+      </c>
+      <c r="C107">
+        <v>7.1760000000722296E-3</v>
+      </c>
+      <c r="D107">
+        <v>0.36198749999994101</v>
+      </c>
+      <c r="E107">
+        <v>7.98000000031606E-4</v>
+      </c>
+      <c r="F107">
+        <v>0.179592800000136</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>0.1</v>
+      </c>
+      <c r="C108">
+        <v>7.8905000000304391E-3</v>
+      </c>
+      <c r="D108">
+        <v>0.347135399999842</v>
+      </c>
+      <c r="E108">
+        <v>1.6183000002456501E-3</v>
+      </c>
+      <c r="F108">
+        <v>0.163758199999847</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>0.1</v>
+      </c>
+      <c r="C109">
+        <v>7.3472999997648003E-3</v>
+      </c>
+      <c r="D109">
+        <v>0.29417340000009001</v>
+      </c>
+      <c r="E109">
+        <v>7.9970000024331901E-4</v>
+      </c>
+      <c r="F109">
+        <v>0.17611369999985901</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0.1</v>
+      </c>
+      <c r="C110">
+        <v>7.8011000000515196E-3</v>
+      </c>
+      <c r="D110">
+        <v>0.30345480000005398</v>
+      </c>
+      <c r="E110">
+        <v>8.4430000015345199E-4</v>
+      </c>
+      <c r="F110">
+        <v>0.147744599999896</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>4.8200999999608004E-3</v>
+      </c>
+      <c r="D111">
+        <v>0.43452399999978297</v>
+      </c>
+      <c r="E111">
+        <v>8.3590000031108502E-4</v>
+      </c>
+      <c r="F111">
+        <v>0.150061599999844</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>4.75179999966712E-3</v>
+      </c>
+      <c r="D112">
+        <v>0.41762160000007498</v>
+      </c>
+      <c r="E112">
+        <v>7.1780000007492996E-4</v>
+      </c>
+      <c r="F112">
+        <v>0.144376700000066</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>4.4026000000485501E-3</v>
+      </c>
+      <c r="D113">
+        <v>0.42325460000029103</v>
+      </c>
+      <c r="E113">
+        <v>1.57840000019859E-3</v>
+      </c>
+      <c r="F113">
+        <v>0.15820289999965001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>5.0062000000252703E-3</v>
+      </c>
+      <c r="D114">
+        <v>0.47916239999994997</v>
+      </c>
+      <c r="E114">
+        <v>7.2069999987434098E-4</v>
+      </c>
+      <c r="F114">
+        <v>0.133584900000187</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>9.5226999997066707E-3</v>
+      </c>
+      <c r="D115">
+        <v>0.65884959999993897</v>
+      </c>
+      <c r="E115">
+        <v>1.04190000001835E-3</v>
+      </c>
+      <c r="F115">
+        <v>0.193716700000095</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>9.8858999999720202E-3</v>
+      </c>
+      <c r="D116">
+        <v>0.486777200000233</v>
+      </c>
+      <c r="E116">
+        <v>7.6510000008056501E-4</v>
+      </c>
+      <c r="F116">
+        <v>0.160156800000095</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>8.12099999984639E-3</v>
+      </c>
+      <c r="D117">
+        <v>0.47702329999992799</v>
+      </c>
+      <c r="E117">
+        <v>8.9470000011715402E-4</v>
+      </c>
+      <c r="F117">
+        <v>0.22317299999986001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>9.5040999999582692E-3</v>
+      </c>
+      <c r="D118">
+        <v>0.50489819999984298</v>
+      </c>
+      <c r="E118">
+        <v>1.4817999999649999E-3</v>
+      </c>
+      <c r="F118">
+        <v>0.223946200000227</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>9.8730999998224399E-3</v>
+      </c>
+      <c r="D119">
+        <v>0.54195290000006902</v>
+      </c>
+      <c r="E119">
+        <v>7.6859999990119799E-4</v>
+      </c>
+      <c r="F119">
+        <v>0.194327800000337</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>1.0417899999992999E-2</v>
+      </c>
+      <c r="D120">
+        <v>0.61906920000001198</v>
+      </c>
+      <c r="E120">
+        <v>8.0750000006446498E-4</v>
+      </c>
+      <c r="F120">
+        <v>0.55723220000027096</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>100</v>
+      </c>
+      <c r="C121">
+        <v>9.99540000020715E-3</v>
+      </c>
+      <c r="D121">
+        <v>0.91727690000016004</v>
+      </c>
+      <c r="E121">
+        <v>1.7640000000937999E-3</v>
+      </c>
+      <c r="F121">
+        <v>0.32686939999984999</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>100</v>
+      </c>
+      <c r="C122">
+        <v>9.7353000001021393E-3</v>
+      </c>
+      <c r="D122">
+        <v>0.86582799999996496</v>
+      </c>
+      <c r="E122">
+        <v>1.5510000002905101E-3</v>
+      </c>
+      <c r="F122">
+        <v>0.25340510000023603</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>100</v>
+      </c>
+      <c r="C123">
+        <v>9.7416999997221795E-3</v>
+      </c>
+      <c r="D123">
+        <v>0.88027429999965501</v>
+      </c>
+      <c r="E123">
+        <v>9.23300000067683E-4</v>
+      </c>
+      <c r="F123">
+        <v>0.30193279999957601</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>100</v>
+      </c>
+      <c r="C124">
+        <v>7.6738000002478596E-3</v>
+      </c>
+      <c r="D124">
+        <v>0.85629289999997105</v>
+      </c>
+      <c r="E124">
+        <v>1.79660000003423E-3</v>
+      </c>
+      <c r="F124">
+        <v>0.31337470000016698</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>100</v>
+      </c>
+      <c r="C125">
+        <v>4.3654900000092298E-2</v>
+      </c>
+      <c r="D125">
+        <v>1.91895780000004</v>
+      </c>
+      <c r="E125">
+        <v>2.9449999997268601E-3</v>
+      </c>
+      <c r="F125">
+        <v>0.54477409999981297</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1000</v>
+      </c>
+      <c r="C126">
+        <v>1.1652099999992E-2</v>
+      </c>
+      <c r="D126">
+        <v>0.86949530000038</v>
+      </c>
+      <c r="E126">
+        <v>1.0097000003952399E-3</v>
+      </c>
+      <c r="F126">
+        <v>0.27475780000076999</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1000</v>
+      </c>
+      <c r="C127">
+        <v>1.02660000002288E-2</v>
+      </c>
+      <c r="D127">
+        <v>0.83050910000019895</v>
+      </c>
+      <c r="E127">
+        <v>1.07790000038221E-3</v>
+      </c>
+      <c r="F127">
+        <v>0.24989290000030401</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1000</v>
+      </c>
+      <c r="C128">
+        <v>6.4483999994990803E-3</v>
+      </c>
+      <c r="D128">
+        <v>0.70991640000011103</v>
+      </c>
+      <c r="E128">
+        <v>2.1337999996831002E-3</v>
+      </c>
+      <c r="F128">
+        <v>0.24974249999922901</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1000</v>
+      </c>
+      <c r="C129">
+        <v>1.1265000000094E-2</v>
+      </c>
+      <c r="D129">
+        <v>0.76422399999955803</v>
+      </c>
+      <c r="E129">
+        <v>2.0862999999735599E-3</v>
+      </c>
+      <c r="F129">
+        <v>0.25265760000002002</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1000</v>
+      </c>
+      <c r="C130">
+        <v>7.5735999998869296E-3</v>
+      </c>
+      <c r="D130">
+        <v>0.83212330000060297</v>
+      </c>
+      <c r="E130">
+        <v>1.83449999985896E-3</v>
+      </c>
+      <c r="F130">
+        <v>0.221588500000507</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="H89:L89"/>
+    <mergeCell ref="B58:I60"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B34:C34"/>
@@ -3516,16 +8249,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B58:I60"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab3/timing data.xlsx
+++ b/lab3/timing data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmaw\OneDrive\Documents\2XC3\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF51A39-71DE-49ED-BA5A-44F18069CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD793924-F409-1248-9614-B617F9ACEFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DC99A1B-3062-8B4F-B963-CDB1AC333640}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{2DC99A1B-3062-8B4F-B963-CDB1AC333640}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,6 +222,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,10 +234,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5055,16 +5055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>224092</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>174888</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762880</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>194130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>222608</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>128426</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>799881</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>147668</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5091,16 +5091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>386080</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289867</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>72198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>368157</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>51371</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>348915</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>32129</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5127,16 +5127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205483</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>111303</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>686544</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>72818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428089</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>102741</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>62483</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>64256</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5165,23 +5165,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1pivot" connectionId="1" xr16:uid="{EEA8E525-FD32-CF42-ADE7-5E0C29562363}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="nocopy" connectionId="5" xr16:uid="{3E255610-454C-3845-A508-0FFD45547B6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="4pivot" connectionId="4" xr16:uid="{51BEFBC1-6D0C-C540-A13B-F987C1CB9F1A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="3pivot" connectionId="3" xr16:uid="{29EEF6AF-DCA4-3E46-A7A2-408E4FA24EF6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2pivot" connectionId="2" xr16:uid="{BA9AD5D7-E956-6E4E-826A-A9029CA2C89A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1pivot" connectionId="1" xr16:uid="{EEA8E525-FD32-CF42-ADE7-5E0C29562363}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="nocopy" connectionId="5" xr16:uid="{3E255610-454C-3845-A508-0FFD45547B6C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5483,47 +5483,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BF6B81-88B5-9C4F-8727-A1C565B4078D}">
   <dimension ref="B2:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="89" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>10</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>2.3675999997862999E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>1.8316999998546601E-5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1.5910000001895201E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1.9144000006576701E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>1.5981999993641599E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>100</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>1.5822000000298401E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>100</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>1.3352000000566001E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>100</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>1.2262100000270899E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>100</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>1.4253099999450499E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>100</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1.20933000005152E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1000</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>1.63016999999854E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1000</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>1.5299530000021299E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1000</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>1.5986089999984101E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1000</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>1.7472929999939801E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1000</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>2.4658770000058798E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>10000</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>1.8794282000001699E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>10000</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>1.53784459999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>10000</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>1.7249126000009999E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>10000</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>1.5926407999998501E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>10000</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>1.55325959999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>100000</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0.19631698399999201</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>100000</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0.21646933799999599</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>100000</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>0.20472369300000501</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>100000</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.207334672000001</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>100000</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>0.187937671</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1000000</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>3.1147698620000002</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1000000</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>2.9951816360000101</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1000000</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>3.1555629779999999</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1000000</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>3.1459090939999901</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1000000</v>
       </c>
@@ -6483,29 +6483,29 @@
         <v>3.2178566380000002</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4" t="s">
+      <c r="I34" s="6"/>
+      <c r="J34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <f t="shared" ref="B35:K35" si="0">AVERAGE(B3:B7)</f>
         <v>10</v>
@@ -6547,7 +6547,7 @@
         <v>1.860579999970462E-5</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <f t="shared" ref="B36:K36" si="1">AVERAGE(B8:B12)</f>
         <v>100</v>
@@ -6589,7 +6589,7 @@
         <v>1.3556500000220199E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <f t="shared" ref="B37:K37" si="2">AVERAGE(B13:B17)</f>
         <v>1000</v>
@@ -6631,7 +6631,7 @@
         <v>1.794380399999788E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <f t="shared" ref="B38:K38" si="3">AVERAGE(B18:B22)</f>
         <v>10000</v>
@@ -6673,7 +6673,7 @@
         <v>1.6576171600001941E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <f t="shared" ref="B39:K39" si="4">AVERAGE(B23:B27)</f>
         <v>100000</v>
@@ -6715,7 +6715,7 @@
         <v>0.20255647159999879</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <f t="shared" ref="B40:K40" si="5">AVERAGE(B28:B32)</f>
         <v>1000000</v>
@@ -6757,21 +6757,21 @@
         <v>3.1258560416000001</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>10</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>1.860579999970462</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>100</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>13.556500000220199</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>1000</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>179.4380399999788</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>10000</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>1657.6171600001942</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>100000</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>20255.64715999988</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1000000</v>
       </c>
@@ -6993,59 +6993,59 @@
         <v>312585.60415999999</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="6">
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="8">
         <f>AVERAGE(C35/E35-1,C36/E36-1,C37/E37-1,C38/E38-1,C39/E39-1,C40/E40-1)</f>
         <v>0.15058313129388765</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8">
         <f>AVERAGE(E35/G35-1,E37/G37-1,E38/G38-1,E39/G39-1,E40/G40-1)</f>
         <v>0.20878968749966789</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8">
         <f>AVERAGE(G35/I35-1,G36/I36-1,G37/I37-1,G38/I38-1,G39/I39-1,G40/I40-1)</f>
         <v>3.0697272586721242E-2</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6">
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
         <f>AVERAGE(I35/K35-1,I36/K36-1,I37/K37-1,I38/K38-1,I39/K39-1,I40/K40-1)</f>
         <v>3.4336295527382633E-2</v>
       </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53">
         <f>(C40/E40)-1</f>
         <v>6.6342422583479443E-2</v>
@@ -7063,63 +7063,63 @@
         <v>-5.2056156198516668E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="F62" s="4" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="F62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -7132,14 +7132,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>10</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <v>8.8699999999164407E-5</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="4">
         <v>5.6600000000628302E-5</v>
       </c>
       <c r="F64">
@@ -7152,11 +7152,11 @@
         <v>9.4839999999862665E-5</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>10</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="4">
         <v>7.0399999998471604E-5</v>
       </c>
       <c r="D65">
@@ -7172,14 +7172,14 @@
         <v>4.8355400000001901E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>10</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <v>7.9399999997065097E-5</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="4">
         <v>9.0399999997714504E-5</v>
       </c>
       <c r="F66">
@@ -7192,14 +7192,14 @@
         <v>0.42934795999999958</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>10</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <v>7.4699999998983899E-5</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="4">
         <v>6.1299999998709595E-5</v>
       </c>
       <c r="F67">
@@ -7209,14 +7209,14 @@
         <v>0.1070765599999995</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>10</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <v>7.9999999996971301E-5</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="4">
         <v>9.7799999998926496E-5</v>
       </c>
       <c r="F68">
@@ -7226,7 +7226,7 @@
         <v>1.421446179999996</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>100</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>16.37891819999998</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>100</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>3.81680000000272E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>100</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>2.10290000000412E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>100</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>2.1424999999979299E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>100</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>3.5913000000036199E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>1000</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>0.229743900000002</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>1000</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0.193515400000002</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>1000</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0.20230980000000101</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>1000</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>0.22189420000000101</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>1000</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>0.240617999999997</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>10000</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>9.0372899999998396E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>10000</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>7.84933999999992E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>10000</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>8.3359999999998893E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>10000</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>0.104974099999999</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>10000</v>
       </c>
@@ -7382,16 +7382,16 @@
         <v>0.13532140000000201</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H89" s="4" t="s">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H89" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>18</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>1E-4</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>0.30817767999997103</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>1E-4</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0.26100206000000947</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>1E-4</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>0.25772417999987679</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>1E-4</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>0.1688140399998696</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>1E-4</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>0.15598855999996838</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>1E-3</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>0.27176720000015797</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>1E-3</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0.34807121999992841</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>1E-3</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>0.24972786000016606</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>1E-3</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>0.26367849999996901</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>1E-3</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0.25438220000023598</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>0.01</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>0.26041390000000297</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>0.01</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>0.28318529999978598</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>0.01</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>0.391756600000007</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>0.01</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>0.167922899999666</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>0.01</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>0.18534219999992199</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>0.1</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>0.17686089999960999</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>0.1</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>0.179592800000136</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>0.1</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>0.163758199999847</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>0.1</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>0.17611369999985901</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>0.1</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0.147744599999896</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>1</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0.150061599999844</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>1</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0.144376700000066</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>1</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>0.15820289999965001</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>1</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>0.133584900000187</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>1</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>0.193716700000095</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>10</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>0.160156800000095</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>10</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0.22317299999986001</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>10</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>0.223946200000227</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>10</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>0.194327800000337</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>10</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>0.55723220000027096</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>100</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>0.32686939999984999</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>100</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0.25340510000023603</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>100</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0.30193279999957601</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>100</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>0.31337470000016698</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>100</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>0.54477409999981297</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>1000</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>0.27475780000076999</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>1000</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0.24989290000030401</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>1000</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>0.24974249999922901</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>1000</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>0.25265760000002002</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>1000</v>
       </c>
@@ -8225,6 +8225,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="F62:H62"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="H89:L89"/>
@@ -8238,17 +8249,6 @@
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
